--- a/examples/models/models.xlsx
+++ b/examples/models/models.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laarman/Projects/lins/src/pins/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laarman/Projects/lins/src/pins/examples/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>anderson.6</t>
   </si>
@@ -212,6 +212,51 @@
   </si>
   <si>
     <t>philo</t>
+  </si>
+  <si>
+    <t>ParamProductionCell-PT-3.pnml</t>
+  </si>
+  <si>
+    <t>PNML</t>
+  </si>
+  <si>
+    <t>ARMCacheCoherence-PT-none.pnml</t>
+  </si>
+  <si>
+    <t>Angiogenesis-PT-05.pnml</t>
+  </si>
+  <si>
+    <t>BridgeAndVehicles-PT-V50P50N10.pnml</t>
+  </si>
+  <si>
+    <t>Diffusion2D-PT-D05N010.pnml</t>
+  </si>
+  <si>
+    <t>IOTPpurchase-PT-C05M04P03D02.pnml</t>
+  </si>
+  <si>
+    <t>Kanban-PT-0010.pnml</t>
+  </si>
+  <si>
+    <t>PolyORBNT-PT-S05J20.pnml</t>
+  </si>
+  <si>
+    <t>ResAllocation-PT-R020C002.pnml</t>
+  </si>
+  <si>
+    <t>SimpleLoadBal-PT-10.pnml</t>
+  </si>
+  <si>
+    <t>SmallOperatingSystem-PT-MT0128DC0032.pnml</t>
+  </si>
+  <si>
+    <t>SmallOperatingSystem-PT-MT0128DC0064.pnml</t>
+  </si>
+  <si>
+    <t>SwimmingPool-PT-03.pnml</t>
+  </si>
+  <si>
+    <t>SwimmingPool-PT-04.pnml</t>
   </si>
 </sst>
 </file>
@@ -540,15 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F68" sqref="F67:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" customWidth="1"/>
@@ -1472,8 +1517,11 @@
       <c r="D44">
         <v>7058556</v>
       </c>
+      <c r="E44" s="3">
+        <v>43</v>
+      </c>
       <c r="F44" s="4">
-        <f>D44/C44</f>
+        <f t="shared" ref="F44:F49" si="1">D44/C44</f>
         <v>2.1518223048170744</v>
       </c>
       <c r="G44">
@@ -1493,8 +1541,11 @@
       <c r="D45">
         <v>20476</v>
       </c>
+      <c r="E45" s="3">
+        <v>46</v>
+      </c>
       <c r="F45" s="4">
-        <f>D45/C45</f>
+        <f t="shared" si="1"/>
         <v>4.0054773082942097</v>
       </c>
       <c r="G45">
@@ -1514,8 +1565,11 @@
       <c r="D46">
         <v>247135869</v>
       </c>
+      <c r="E46" s="3">
+        <v>37</v>
+      </c>
       <c r="F46" s="4">
-        <f>D46/C46</f>
+        <f t="shared" si="1"/>
         <v>5.1100040950604022</v>
       </c>
       <c r="G46">
@@ -1539,7 +1593,7 @@
         <v>43</v>
       </c>
       <c r="F47" s="4">
-        <f>D47/C47</f>
+        <f t="shared" si="1"/>
         <v>4.6877492546026343</v>
       </c>
       <c r="G47">
@@ -1563,7 +1617,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="4">
-        <f>D48/C48</f>
+        <f t="shared" si="1"/>
         <v>3.6993375685518561</v>
       </c>
       <c r="G48">
@@ -1587,7 +1641,7 @@
         <v>33</v>
       </c>
       <c r="F49" s="4">
-        <f>D49/C49</f>
+        <f t="shared" si="1"/>
         <v>3.3561125822857898</v>
       </c>
       <c r="G49">
@@ -1611,7 +1665,7 @@
         <v>31</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" ref="F50:F52" si="1">D50/C50</f>
+        <f t="shared" ref="F50:F68" si="2">D50/C50</f>
         <v>4.5655057980012685</v>
       </c>
     </row>
@@ -1628,8 +1682,11 @@
       <c r="D51">
         <v>16091905</v>
       </c>
+      <c r="E51">
+        <v>27</v>
+      </c>
       <c r="F51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8068689929373303</v>
       </c>
       <c r="G51">
@@ -1649,13 +1706,316 @@
       <c r="D52">
         <v>35999</v>
       </c>
+      <c r="E52">
+        <v>97</v>
+      </c>
       <c r="F52" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9874833850243685</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53">
+        <v>320567601</v>
+      </c>
+      <c r="D53">
+        <v>22339639091</v>
+      </c>
+      <c r="E53">
+        <v>87</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="2"/>
+        <v>69.687763271497914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>42734935</v>
+      </c>
+      <c r="D54">
+        <v>486873657</v>
+      </c>
+      <c r="E54">
+        <v>39</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="2"/>
+        <v>11.392872295231056</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>347634372</v>
+      </c>
+      <c r="D55">
+        <v>1271734778</v>
+      </c>
+      <c r="E55">
+        <v>128</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="2"/>
+        <v>3.6582538449333772</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>131128140</v>
+      </c>
+      <c r="D56">
+        <v>5553662400</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56" s="4">
+        <f t="shared" si="2"/>
+        <v>42.352941176470587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>17406024</v>
+      </c>
+      <c r="D57">
+        <v>108419358</v>
+      </c>
+      <c r="E57">
+        <v>111</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="2"/>
+        <v>6.228841118454163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>1005927208</v>
+      </c>
+      <c r="D58">
+        <v>12032229352</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="2"/>
+        <v>11.961332048988579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>1465206</v>
+      </c>
+      <c r="D59">
+        <v>5922650</v>
+      </c>
+      <c r="E59">
+        <v>231</v>
+      </c>
+      <c r="F59" s="4">
+        <f t="shared" si="2"/>
+        <v>4.0421961144030263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>693820562</v>
+      </c>
+      <c r="D60">
+        <v>2151241550</v>
+      </c>
+      <c r="E60">
+        <v>349</v>
+      </c>
+      <c r="F60" s="4">
+        <f t="shared" si="2"/>
+        <v>3.1005733583318045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>11534336</v>
+      </c>
+      <c r="D61">
+        <v>66846720</v>
+      </c>
+      <c r="E61">
+        <v>80</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="2"/>
+        <v>5.7954545454545459</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>406034376</v>
+      </c>
+      <c r="D62">
+        <v>3051203628</v>
+      </c>
+      <c r="E62">
+        <v>104</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5146436074171215</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>113321065</v>
+      </c>
+      <c r="D63">
+        <v>863518392</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="2"/>
+        <v>7.6201048057569878</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <v>261156753</v>
+      </c>
+      <c r="D64">
+        <v>2010621184</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="2"/>
+        <v>7.698905584111011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65">
+        <v>32209356</v>
+      </c>
+      <c r="D65">
+        <v>199290424</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="2"/>
+        <v>6.1873458134338355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66">
+        <v>164385221</v>
+      </c>
+      <c r="D66">
+        <v>1047509092</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="2"/>
+        <v>6.3722826518571276</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
